--- a/Code/Results/Cases/Case_8_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_12/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009737077822223</v>
+        <v>1.007633549010867</v>
       </c>
       <c r="D2">
-        <v>1.027581749980156</v>
+        <v>1.025490934879677</v>
       </c>
       <c r="E2">
-        <v>1.014842937586718</v>
+        <v>1.013040555018041</v>
       </c>
       <c r="F2">
-        <v>1.020840377088843</v>
+        <v>1.019929133290294</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049431996140216</v>
+        <v>1.048114241033428</v>
       </c>
       <c r="J2">
-        <v>1.031630404409309</v>
+        <v>1.029588314717862</v>
       </c>
       <c r="K2">
-        <v>1.038669748874464</v>
+        <v>1.036606205790207</v>
       </c>
       <c r="L2">
-        <v>1.026099288295307</v>
+        <v>1.024321155194068</v>
       </c>
       <c r="M2">
-        <v>1.032016811065346</v>
+        <v>1.031117633735209</v>
       </c>
       <c r="N2">
-        <v>1.033095437913236</v>
+        <v>1.026187138779704</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.033911518261533</v>
+        <v>1.033199872748914</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.0384131347623</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036962808795867</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021802725854842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013353858479344</v>
+        <v>1.010958766687531</v>
       </c>
       <c r="D3">
-        <v>1.029980219241129</v>
+        <v>1.027597913670691</v>
       </c>
       <c r="E3">
-        <v>1.017678380015646</v>
+        <v>1.015620121503248</v>
       </c>
       <c r="F3">
-        <v>1.02380726365308</v>
+        <v>1.022771135256575</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050410495433758</v>
+        <v>1.048907151952198</v>
       </c>
       <c r="J3">
-        <v>1.033486987233329</v>
+        <v>1.031155078290282</v>
       </c>
       <c r="K3">
-        <v>1.040243346549959</v>
+        <v>1.037889443609346</v>
       </c>
       <c r="L3">
-        <v>1.028089951192355</v>
+        <v>1.026056966145013</v>
       </c>
       <c r="M3">
-        <v>1.034144325212188</v>
+        <v>1.033120715266598</v>
       </c>
       <c r="N3">
-        <v>1.034954657297815</v>
+        <v>1.027065589535622</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.035595316630049</v>
+        <v>1.034785191963078</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.039523140032035</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037867226703728</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022047610004214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015651456259032</v>
+        <v>1.013073027652622</v>
       </c>
       <c r="D4">
-        <v>1.031507023443704</v>
+        <v>1.028940715300035</v>
       </c>
       <c r="E4">
-        <v>1.019485060915478</v>
+        <v>1.017265688995364</v>
       </c>
       <c r="F4">
-        <v>1.02569907257865</v>
+        <v>1.024584603752281</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.05102202974045</v>
+        <v>1.049401341172134</v>
       </c>
       <c r="J4">
-        <v>1.034663096403431</v>
+        <v>1.032148134365264</v>
       </c>
       <c r="K4">
-        <v>1.041239495094945</v>
+        <v>1.038701961546948</v>
       </c>
       <c r="L4">
-        <v>1.02935387153349</v>
+        <v>1.027160104393461</v>
       </c>
       <c r="M4">
-        <v>1.035496919256276</v>
+        <v>1.034395099533295</v>
       </c>
       <c r="N4">
-        <v>1.03613243667784</v>
+        <v>1.027622371627773</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.036665810668686</v>
+        <v>1.035793789026132</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.040228397831948</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038442727001241</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022200200810826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016610491694099</v>
+        <v>1.013955795655957</v>
       </c>
       <c r="D5">
-        <v>1.032147158830741</v>
+        <v>1.02950424957078</v>
       </c>
       <c r="E5">
-        <v>1.020240878426763</v>
+        <v>1.017954427643928</v>
       </c>
       <c r="F5">
-        <v>1.026489201175222</v>
+        <v>1.025342183976868</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051276346258225</v>
+        <v>1.049606737170996</v>
       </c>
       <c r="J5">
-        <v>1.035154616603357</v>
+        <v>1.032563332642199</v>
       </c>
       <c r="K5">
-        <v>1.041657206704404</v>
+        <v>1.039043151621595</v>
       </c>
       <c r="L5">
-        <v>1.029882366598438</v>
+        <v>1.027621590678617</v>
       </c>
       <c r="M5">
-        <v>1.036061243222371</v>
+        <v>1.034926896409163</v>
       </c>
       <c r="N5">
-        <v>1.036624654892828</v>
+        <v>1.027855162353391</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.037112437503243</v>
+        <v>1.036214673244245</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.040530920207415</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038691864948898</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022264191833085</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016774667892298</v>
+        <v>1.014106734481189</v>
       </c>
       <c r="D6">
-        <v>1.032259347842297</v>
+        <v>1.029603259065615</v>
       </c>
       <c r="E6">
-        <v>1.020370846382993</v>
+        <v>1.018072737315978</v>
       </c>
       <c r="F6">
-        <v>1.026623099724722</v>
+        <v>1.025470433104386</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051321576610784</v>
+        <v>1.049643519315664</v>
       </c>
       <c r="J6">
-        <v>1.035240439252032</v>
+        <v>1.032635909845161</v>
       </c>
       <c r="K6">
-        <v>1.041732036021664</v>
+        <v>1.039104814041839</v>
       </c>
       <c r="L6">
-        <v>1.02997417871858</v>
+        <v>1.027701757017215</v>
       </c>
       <c r="M6">
-        <v>1.036157261947858</v>
+        <v>1.035017269615315</v>
       </c>
       <c r="N6">
-        <v>1.036710599419508</v>
+        <v>1.027895854433425</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.037188430241903</v>
+        <v>1.036286198002536</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.040592568662856</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038745085764172</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02227634832593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015674314233721</v>
+        <v>1.013112122263502</v>
       </c>
       <c r="D7">
-        <v>1.031529125630385</v>
+        <v>1.028974300502931</v>
       </c>
       <c r="E7">
-        <v>1.019504439370247</v>
+        <v>1.017300013259336</v>
       </c>
       <c r="F7">
-        <v>1.025713979895789</v>
+        <v>1.024606534479652</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051033019541215</v>
+        <v>1.049420777334507</v>
       </c>
       <c r="J7">
-        <v>1.034679446428525</v>
+        <v>1.032180293189302</v>
       </c>
       <c r="K7">
-        <v>1.041258471346514</v>
+        <v>1.038732280604802</v>
       </c>
       <c r="L7">
-        <v>1.029370102622066</v>
+        <v>1.027191098699016</v>
       </c>
       <c r="M7">
-        <v>1.035508756893317</v>
+        <v>1.034413876112341</v>
       </c>
       <c r="N7">
-        <v>1.036148809921844</v>
+        <v>1.027692601827365</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.036675179414838</v>
+        <v>1.035808649527222</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.040261914179857</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038486292601382</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022209511661005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010980850081357</v>
+        <v>1.008833809512375</v>
       </c>
       <c r="D8">
-        <v>1.028414297252869</v>
+        <v>1.02626481996246</v>
       </c>
       <c r="E8">
-        <v>1.015818651837803</v>
+        <v>1.013980488218595</v>
       </c>
       <c r="F8">
-        <v>1.02185434296197</v>
+        <v>1.020924683154885</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049776545033922</v>
+        <v>1.048425085359716</v>
       </c>
       <c r="J8">
-        <v>1.032275246521651</v>
+        <v>1.030188828589141</v>
       </c>
       <c r="K8">
-        <v>1.039222657247171</v>
+        <v>1.037100392950445</v>
       </c>
       <c r="L8">
-        <v>1.026788529280031</v>
+        <v>1.024974357258108</v>
       </c>
       <c r="M8">
-        <v>1.032746201915577</v>
+        <v>1.031828483908991</v>
       </c>
       <c r="N8">
-        <v>1.033741195775338</v>
+        <v>1.026682069000932</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.034488787319169</v>
+        <v>1.033762468549537</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.038826991985736</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037337442713018</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021905581287734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002353843082721</v>
+        <v>1.000925306425213</v>
       </c>
       <c r="D9">
-        <v>1.022704796718821</v>
+        <v>1.021265775679641</v>
       </c>
       <c r="E9">
-        <v>1.009086079410092</v>
+        <v>1.007877533543551</v>
       </c>
       <c r="F9">
-        <v>1.014823435654028</v>
+        <v>1.014202873428158</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047381136699655</v>
+        <v>1.046481462107299</v>
       </c>
       <c r="J9">
-        <v>1.027823754021336</v>
+        <v>1.026445431996835</v>
       </c>
       <c r="K9">
-        <v>1.03543993997027</v>
+        <v>1.034023001688224</v>
       </c>
       <c r="L9">
-        <v>1.022033441518195</v>
+        <v>1.020844083224105</v>
       </c>
       <c r="M9">
-        <v>1.027680505413948</v>
+        <v>1.027069646348158</v>
       </c>
       <c r="N9">
-        <v>1.029283381645079</v>
+        <v>1.024602356105725</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.030479582924248</v>
+        <v>1.029996121916596</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.036149181811026</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035158059558433</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021303804533738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9964520379454638</v>
+        <v>0.995606229183016</v>
       </c>
       <c r="D10">
-        <v>1.018829735888347</v>
+        <v>1.017940674736574</v>
       </c>
       <c r="E10">
-        <v>1.004523820396978</v>
+        <v>1.00382766548377</v>
       </c>
       <c r="F10">
-        <v>1.010292419674037</v>
+        <v>1.009924542725044</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045717319875673</v>
+        <v>1.045171281278172</v>
       </c>
       <c r="J10">
-        <v>1.024807133730382</v>
+        <v>1.02399526332993</v>
       </c>
       <c r="K10">
-        <v>1.032867137441755</v>
+        <v>1.031993387862564</v>
       </c>
       <c r="L10">
-        <v>1.018811873441082</v>
+        <v>1.018128152453392</v>
       </c>
       <c r="M10">
-        <v>1.024478295094459</v>
+        <v>1.024116889080192</v>
       </c>
       <c r="N10">
-        <v>1.0262624774073</v>
+        <v>1.023461589830707</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.027997308633469</v>
+        <v>1.027711293168557</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.034346875938918</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033741515371511</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020909626454965</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9945991021739761</v>
+        <v>0.9940101548361476</v>
       </c>
       <c r="D11">
-        <v>1.017693364954109</v>
+        <v>1.017023400869935</v>
       </c>
       <c r="E11">
-        <v>1.003191958176547</v>
+        <v>1.002723058968297</v>
       </c>
       <c r="F11">
-        <v>1.01077796785514</v>
+        <v>1.010523686543552</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045373868424946</v>
+        <v>1.044974970698371</v>
       </c>
       <c r="J11">
-        <v>1.024198303765571</v>
+        <v>1.023634258998624</v>
       </c>
       <c r="K11">
-        <v>1.032289150000136</v>
+        <v>1.031631266254062</v>
       </c>
       <c r="L11">
-        <v>1.018053928849334</v>
+        <v>1.017593804447042</v>
       </c>
       <c r="M11">
-        <v>1.025499450113308</v>
+        <v>1.025249833440016</v>
       </c>
       <c r="N11">
-        <v>1.025652782834106</v>
+        <v>1.023703651242874</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.029246353265826</v>
+        <v>1.029048909329169</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033971102986691</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033521603142631</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020897402249816</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9941525695939178</v>
+        <v>0.9936167090765251</v>
       </c>
       <c r="D12">
-        <v>1.017449303233958</v>
+        <v>1.016821664716579</v>
       </c>
       <c r="E12">
-        <v>1.00291659695401</v>
+        <v>1.002492471423835</v>
       </c>
       <c r="F12">
-        <v>1.011782153257103</v>
+        <v>1.01155204806867</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045372828057617</v>
+        <v>1.045003570642336</v>
       </c>
       <c r="J12">
-        <v>1.024206481576645</v>
+        <v>1.023693699861866</v>
       </c>
       <c r="K12">
-        <v>1.032249667413225</v>
+        <v>1.031633531644561</v>
       </c>
       <c r="L12">
-        <v>1.01798813208009</v>
+        <v>1.017572074899546</v>
       </c>
       <c r="M12">
-        <v>1.026687054233111</v>
+        <v>1.026461225866478</v>
       </c>
       <c r="N12">
-        <v>1.02566097225861</v>
+        <v>1.023929945449664</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.030514946530846</v>
+        <v>1.030336380427313</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033943187453124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03352320481902</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.0209334486159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9947675746058398</v>
+        <v>0.9941203846691472</v>
       </c>
       <c r="D13">
-        <v>1.017888512314796</v>
+        <v>1.017162542337555</v>
       </c>
       <c r="E13">
-        <v>1.003442439094828</v>
+        <v>1.002916276797478</v>
       </c>
       <c r="F13">
-        <v>1.013278208083103</v>
+        <v>1.013001515066709</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045647060542848</v>
+        <v>1.045213557395854</v>
       </c>
       <c r="J13">
-        <v>1.024701605083248</v>
+        <v>1.024082142085639</v>
       </c>
       <c r="K13">
-        <v>1.032637926794518</v>
+        <v>1.03192520396633</v>
       </c>
       <c r="L13">
-        <v>1.018460169907566</v>
+        <v>1.017943971098782</v>
       </c>
       <c r="M13">
-        <v>1.028112169469572</v>
+        <v>1.027840582544822</v>
       </c>
       <c r="N13">
-        <v>1.026156798897383</v>
+        <v>1.024104991996402</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.031920343242666</v>
+        <v>1.031705649735682</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034215204616716</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033726683611244</v>
+      </c>
+      <c r="S13">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T13">
+        <v>1.021013794556752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.995670177090636</v>
+        <v>0.9948764803551774</v>
       </c>
       <c r="D14">
-        <v>1.018500358342552</v>
+        <v>1.017646725121154</v>
       </c>
       <c r="E14">
-        <v>1.004165886354793</v>
+        <v>1.00350771045521</v>
       </c>
       <c r="F14">
-        <v>1.014522209790573</v>
+        <v>1.014183733734444</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045959289594951</v>
+        <v>1.045441535116751</v>
       </c>
       <c r="J14">
-        <v>1.025260110984277</v>
+        <v>1.024499929205442</v>
       </c>
       <c r="K14">
-        <v>1.033098142514552</v>
+        <v>1.032259893401848</v>
       </c>
       <c r="L14">
-        <v>1.019026531815571</v>
+        <v>1.01838066074709</v>
       </c>
       <c r="M14">
-        <v>1.029191975132414</v>
+        <v>1.028859657429735</v>
       </c>
       <c r="N14">
-        <v>1.026716097940853</v>
+        <v>1.024203807660578</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.032948181401312</v>
+        <v>1.032685515018199</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034542018998978</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033964881432803</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021090654598239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9961331683005479</v>
+        <v>0.9952690242857292</v>
       </c>
       <c r="D15">
-        <v>1.01880942896351</v>
+        <v>1.017894622789039</v>
       </c>
       <c r="E15">
-        <v>1.004527852745836</v>
+        <v>1.003806869651596</v>
       </c>
       <c r="F15">
-        <v>1.014980726404485</v>
+        <v>1.014612403216318</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046103050718215</v>
+        <v>1.04554476481839</v>
       </c>
       <c r="J15">
-        <v>1.025515632983455</v>
+        <v>1.024687661399489</v>
       </c>
       <c r="K15">
-        <v>1.033315128236876</v>
+        <v>1.032416684415783</v>
       </c>
       <c r="L15">
-        <v>1.019293426753899</v>
+        <v>1.018585818771869</v>
       </c>
       <c r="M15">
-        <v>1.029555161969391</v>
+        <v>1.029193486810059</v>
       </c>
       <c r="N15">
-        <v>1.026971982810579</v>
+        <v>1.024228930793741</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.033272958027592</v>
+        <v>1.032987094843926</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034701311603851</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034082187454106</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021123066553021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9984987327434403</v>
+        <v>0.9973070774390063</v>
       </c>
       <c r="D16">
-        <v>1.020355754406442</v>
+        <v>1.019154603620195</v>
       </c>
       <c r="E16">
-        <v>1.006340202168763</v>
+        <v>1.005330375925949</v>
       </c>
       <c r="F16">
-        <v>1.016651727256768</v>
+        <v>1.016143689690985</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046763192447766</v>
+        <v>1.04601512477685</v>
       </c>
       <c r="J16">
-        <v>1.026695064667732</v>
+        <v>1.025550818549927</v>
       </c>
       <c r="K16">
-        <v>1.034331326950382</v>
+        <v>1.033150730562169</v>
       </c>
       <c r="L16">
-        <v>1.020559573975977</v>
+        <v>1.019567654225377</v>
       </c>
       <c r="M16">
-        <v>1.030690885861412</v>
+        <v>1.030191616402822</v>
       </c>
       <c r="N16">
-        <v>1.028153089423131</v>
+        <v>1.024308496068626</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.034131724708999</v>
+        <v>1.033737097501987</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.035422970735797</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034604658493346</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021256598904895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9998496218313597</v>
+        <v>0.9984954767437443</v>
       </c>
       <c r="D17">
-        <v>1.02122893207254</v>
+        <v>1.019882880924255</v>
       </c>
       <c r="E17">
-        <v>1.007360687277936</v>
+        <v>1.006208550005508</v>
       </c>
       <c r="F17">
-        <v>1.017287492699254</v>
+        <v>1.016709323045477</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047107644149275</v>
+        <v>1.04626397772959</v>
       </c>
       <c r="J17">
-        <v>1.027313580077321</v>
+        <v>1.026011594589585</v>
       </c>
       <c r="K17">
-        <v>1.03487470537643</v>
+        <v>1.033551046735894</v>
       </c>
       <c r="L17">
-        <v>1.021240876230267</v>
+        <v>1.020108589568223</v>
       </c>
       <c r="M17">
-        <v>1.030999050267649</v>
+        <v>1.030430585814668</v>
       </c>
       <c r="N17">
-        <v>1.028772483195545</v>
+        <v>1.024378969615196</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.034245598416138</v>
+        <v>1.033796233772127</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035809750028865</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034890538862598</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021321240774397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000414802519373</v>
+        <v>0.9990108392552807</v>
       </c>
       <c r="D18">
-        <v>1.021568443822799</v>
+        <v>1.02017692151576</v>
       </c>
       <c r="E18">
-        <v>1.007756399410596</v>
+        <v>1.006561764483131</v>
       </c>
       <c r="F18">
-        <v>1.016925011263597</v>
+        <v>1.016323642708428</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047189132481742</v>
+        <v>1.046315376749179</v>
       </c>
       <c r="J18">
-        <v>1.027462148268759</v>
+        <v>1.026111268046412</v>
       </c>
       <c r="K18">
-        <v>1.035024981357453</v>
+        <v>1.033656232438159</v>
       </c>
       <c r="L18">
-        <v>1.021442577082399</v>
+        <v>1.020268186490047</v>
       </c>
       <c r="M18">
-        <v>1.030457855065622</v>
+        <v>1.029866434539507</v>
       </c>
       <c r="N18">
-        <v>1.028921262370856</v>
+        <v>1.024352536726796</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.033578590979056</v>
+        <v>1.033110981358185</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035904357287545</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034952120325735</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021318909007337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000246268185186</v>
+        <v>0.9988855643699156</v>
       </c>
       <c r="D19">
-        <v>1.021417231392786</v>
+        <v>1.020065053011926</v>
       </c>
       <c r="E19">
-        <v>1.007567390668139</v>
+        <v>1.006412431852397</v>
       </c>
       <c r="F19">
-        <v>1.015555478225868</v>
+        <v>1.014969682414074</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047026425801895</v>
+        <v>1.046177805699844</v>
       </c>
       <c r="J19">
-        <v>1.027165402185798</v>
+        <v>1.025855866069427</v>
       </c>
       <c r="K19">
-        <v>1.034813621850865</v>
+        <v>1.033483462151686</v>
       </c>
       <c r="L19">
-        <v>1.02119291753133</v>
+        <v>1.020057434266728</v>
       </c>
       <c r="M19">
-        <v>1.029047865992866</v>
+        <v>1.028471742122084</v>
       </c>
       <c r="N19">
-        <v>1.02862409487442</v>
+        <v>1.024186160179329</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.032135600551554</v>
+        <v>1.031679934171427</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035761318670465</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034836997054304</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021254120147635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9980095820473948</v>
+        <v>0.99695418760556</v>
       </c>
       <c r="D20">
-        <v>1.019867770229761</v>
+        <v>1.018793426803011</v>
       </c>
       <c r="E20">
-        <v>1.005729948064453</v>
+        <v>1.004847132404094</v>
       </c>
       <c r="F20">
-        <v>1.011487670200982</v>
+        <v>1.011028801030973</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046172396177518</v>
+        <v>1.045504177731635</v>
       </c>
       <c r="J20">
-        <v>1.025617447175314</v>
+        <v>1.024603027222197</v>
       </c>
       <c r="K20">
-        <v>1.033570039071853</v>
+        <v>1.032513674509294</v>
       </c>
       <c r="L20">
-        <v>1.019672786004763</v>
+        <v>1.018805282954629</v>
       </c>
       <c r="M20">
-        <v>1.025331486271739</v>
+        <v>1.024880455343781</v>
       </c>
       <c r="N20">
-        <v>1.027073941590269</v>
+        <v>1.023606885310336</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.028661844327078</v>
+        <v>1.028304895647901</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034885984009508</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034155639308606</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.0210104078529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.993426725889001</v>
+        <v>0.9930864398523891</v>
       </c>
       <c r="D21">
-        <v>1.016848892996123</v>
+        <v>1.016393732757852</v>
       </c>
       <c r="E21">
-        <v>1.002180680408041</v>
+        <v>1.00193833694053</v>
       </c>
       <c r="F21">
-        <v>1.007610702561981</v>
+        <v>1.007462387424184</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044824625729596</v>
+        <v>1.044567674783138</v>
       </c>
       <c r="J21">
-        <v>1.0232018671885</v>
+        <v>1.022876085269538</v>
       </c>
       <c r="K21">
-        <v>1.031517937496627</v>
+        <v>1.031071037525795</v>
       </c>
       <c r="L21">
-        <v>1.017120856570822</v>
+        <v>1.016883079751639</v>
       </c>
       <c r="M21">
-        <v>1.022449308289131</v>
+        <v>1.022303748466146</v>
       </c>
       <c r="N21">
-        <v>1.024654931202802</v>
+        <v>1.023449816686941</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.026339370118617</v>
+        <v>1.026224166945525</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.033438301363867</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033139196134168</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020742455099079</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9905235836291992</v>
+        <v>0.9906181263146693</v>
       </c>
       <c r="D22">
-        <v>1.014939446238655</v>
+        <v>1.014862741666408</v>
       </c>
       <c r="E22">
-        <v>0.9999437209747529</v>
+        <v>1.000091341556433</v>
       </c>
       <c r="F22">
-        <v>1.005287358644128</v>
+        <v>1.005328609450715</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043967962960796</v>
+        <v>1.04396098024758</v>
       </c>
       <c r="J22">
-        <v>1.021685415478898</v>
+        <v>1.021775694500487</v>
       </c>
       <c r="K22">
-        <v>1.030220647739737</v>
+        <v>1.030145404895393</v>
       </c>
       <c r="L22">
-        <v>1.015516292846071</v>
+        <v>1.015660989169914</v>
       </c>
       <c r="M22">
-        <v>1.02075479460889</v>
+        <v>1.020795239509956</v>
       </c>
       <c r="N22">
-        <v>1.023136325957833</v>
+        <v>1.023305777528209</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.024998247795147</v>
+        <v>1.025030257930198</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.03250752704735</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032469892287516</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020568635138954</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9920590901196583</v>
+        <v>0.9918988455607927</v>
       </c>
       <c r="D23">
-        <v>1.015943015593404</v>
+        <v>1.015647837954342</v>
       </c>
       <c r="E23">
-        <v>1.001124628012788</v>
+        <v>1.001042756009096</v>
       </c>
       <c r="F23">
-        <v>1.006518685090786</v>
+        <v>1.006448806913142</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044418018723825</v>
+        <v>1.044265825546967</v>
       </c>
       <c r="J23">
-        <v>1.022483720095934</v>
+        <v>1.022330491047466</v>
       </c>
       <c r="K23">
-        <v>1.030899463630369</v>
+        <v>1.030609768603449</v>
       </c>
       <c r="L23">
-        <v>1.016361542900879</v>
+        <v>1.016281250701633</v>
       </c>
       <c r="M23">
-        <v>1.021652256687529</v>
+        <v>1.021583708024368</v>
       </c>
       <c r="N23">
-        <v>1.023935764258992</v>
+        <v>1.02329632345327</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.025708544205469</v>
+        <v>1.025654291388425</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032977825754993</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032787618471266</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020651518351872</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9979954066751622</v>
+        <v>0.9969451343551409</v>
       </c>
       <c r="D24">
-        <v>1.019842301922246</v>
+        <v>1.018772411822835</v>
       </c>
       <c r="E24">
-        <v>1.005707812044989</v>
+        <v>1.004829747752914</v>
       </c>
       <c r="F24">
-        <v>1.011292613424905</v>
+        <v>1.010835625252209</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046143894925445</v>
+        <v>1.045478570399405</v>
       </c>
       <c r="J24">
-        <v>1.025570840738955</v>
+        <v>1.024561288075566</v>
       </c>
       <c r="K24">
-        <v>1.033529699984872</v>
+        <v>1.032477692318748</v>
       </c>
       <c r="L24">
-        <v>1.019635428103</v>
+        <v>1.018772575173315</v>
       </c>
       <c r="M24">
-        <v>1.025124278428022</v>
+        <v>1.024675090201809</v>
       </c>
       <c r="N24">
-        <v>1.027027268967424</v>
+        <v>1.023575535691165</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.02845646905536</v>
+        <v>1.028100960526884</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034830020879942</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034100062510687</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020996298548124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004642306836121</v>
+        <v>1.002996829705303</v>
       </c>
       <c r="D25">
-        <v>1.024226410007248</v>
+        <v>1.022580277538805</v>
       </c>
       <c r="E25">
-        <v>1.010868980080264</v>
+        <v>1.009469477207678</v>
       </c>
       <c r="F25">
-        <v>1.016675634638974</v>
+        <v>1.015961441634548</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048032768879339</v>
+        <v>1.046999997416647</v>
       </c>
       <c r="J25">
-        <v>1.029014442527067</v>
+        <v>1.027423757776626</v>
       </c>
       <c r="K25">
-        <v>1.036459932515665</v>
+        <v>1.034837892095157</v>
       </c>
       <c r="L25">
-        <v>1.023300880078305</v>
+        <v>1.021922548991979</v>
       </c>
       <c r="M25">
-        <v>1.029020482889674</v>
+        <v>1.028316928610607</v>
       </c>
       <c r="N25">
-        <v>1.030475761065062</v>
+        <v>1.025084819262529</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.031540099461747</v>
+        <v>1.030983276163178</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03689898413287</v>
+        <v>1.035765675684233</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021465545617623</v>
       </c>
     </row>
   </sheetData>
